--- a/entidades.xlsx
+++ b/entidades.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="Dicionario de dados" sheetId="2" r:id="rId2"/>
+    <sheet name="relacionamentos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="141">
   <si>
     <t>Entidades</t>
   </si>
@@ -324,9 +325,6 @@
     <t>Representa a Produtora do jogo, deve ter apenas 1. Referencia o ID da entidade Produtora.</t>
   </si>
   <si>
-    <t>Identificador único do lançamento</t>
-  </si>
-  <si>
     <t>idProdutora</t>
   </si>
   <si>
@@ -376,6 +374,81 @@
   </si>
   <si>
     <t>Informa o ID da conquista de jogo, pode ter de 0-n. Referencia o ID da entidade Conquista que deve ser uma entidade fraca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insígnia </t>
+  </si>
+  <si>
+    <t>Identificador único do lançamento.</t>
+  </si>
+  <si>
+    <t>Identificador único da insígnia.</t>
+  </si>
+  <si>
+    <t>Nome da Insígnia.</t>
+  </si>
+  <si>
+    <t>Membro da Steam pro 10 anos.</t>
+  </si>
+  <si>
+    <t>10 Anos de Serviço</t>
+  </si>
+  <si>
+    <t>Entidade 1</t>
+  </si>
+  <si>
+    <t>Entidade 2</t>
+  </si>
+  <si>
+    <t>Atributos</t>
+  </si>
+  <si>
+    <t>Carnidalidade 1</t>
+  </si>
+  <si>
+    <t>Carnidalidade 2</t>
+  </si>
+  <si>
+    <t>0-n</t>
+  </si>
+  <si>
+    <t>Insígnia</t>
+  </si>
+  <si>
+    <t>Coleciona</t>
+  </si>
+  <si>
+    <t>Emissão</t>
+  </si>
+  <si>
+    <t>PedidoCompra</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Adicionado chave estrangeira na Entidade PedidoCompra</t>
+  </si>
+  <si>
+    <t>Criada nova tabela com chave estrangeira para cada entidade.</t>
+  </si>
+  <si>
+    <t>Biblioteca</t>
+  </si>
+  <si>
+    <t>Foi unida as duas tabelas em uma só, com a junção das duas chaves primárias.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PossuiBiblioteca</t>
   </si>
 </sst>
 </file>
@@ -385,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +488,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,8 +522,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -478,19 +565,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -614,117 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -733,21 +696,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF9BC2E6"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -816,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,20 +778,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -854,16 +796,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -872,97 +814,49 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,25 +871,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
+  <dxfs count="134">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1016,28 +944,77 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1082,34 +1059,31 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1131,6 +1105,1089 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1803,32 +2860,270 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="medium">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1845,440 +3140,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2295,156 +3156,228 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="C3:F7" totalsRowShown="0" headerRowDxfId="82" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="C3:F7" totalsRowShown="0" headerRowDxfId="44" tableBorderDxfId="133">
   <autoFilter ref="C3:F7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="80"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="79"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="78"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="77"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="48"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="47"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="46"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabela15" displayName="Tabela15" ref="C72:F76" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabela15" displayName="Tabela15" ref="C72:F76" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83">
   <autoFilter ref="C72:F76"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="17"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="16"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="15"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="14"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="82"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="81"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="80"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela16" displayName="Tabela16" ref="C80:F84" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela16" displayName="Tabela16" ref="C80:F84" totalsRowShown="0" headerRowDxfId="78" tableBorderDxfId="77">
   <autoFilter ref="C80:F84"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="11"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="10"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="9"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="8"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="76"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="75"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="74"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela17" displayName="Tabela17" ref="C89:F94" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela17" displayName="Tabela17" ref="C89:F94" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="C89:F94"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="3"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="2"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="1"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="0"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="68"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="67"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="66"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C97:F101" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="63" tableBorderDxfId="64" totalsRowBorderDxfId="62">
+  <autoFilter ref="C97:F101"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Atributo" dataDxfId="61"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="60"/>
+    <tableColumn id="3" name="Descrição"/>
+    <tableColumn id="4" name="Exemplo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabela18" displayName="Tabela18" ref="E3:J4" totalsRowShown="0" headerRowDxfId="34" dataDxfId="43" headerRowBorderDxfId="41" tableBorderDxfId="42" totalsRowBorderDxfId="40">
+  <tableColumns count="6">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="39"/>
+    <tableColumn id="2" name="Carnidalidade 1" dataDxfId="38"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="37"/>
+    <tableColumn id="4" name="Carnidalidade 2" dataDxfId="36"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="35"/>
+    <tableColumn id="6" name="Ação" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela20" displayName="Tabela20" ref="E8:J9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="30" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+  <autoFilter ref="E8:J9"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="25"/>
+    <tableColumn id="2" name="Carnidalidade 1" dataDxfId="24"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="23"/>
+    <tableColumn id="4" name="Carnidalidade 2" dataDxfId="22"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="21"/>
+    <tableColumn id="6" name="Ação" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabela2022" displayName="Tabela2022" ref="E13:J14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+  <autoFilter ref="E13:J14"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="17"/>
+    <tableColumn id="2" name="Carnidalidade 1" dataDxfId="16"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="15"/>
+    <tableColumn id="4" name="Carnidalidade 2" dataDxfId="14"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="13"/>
+    <tableColumn id="6" name="Ação" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabela202223" displayName="Tabela202223" ref="E17:J18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="E17:J18"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="5"/>
+    <tableColumn id="2" name="Carnidalidade 1" dataDxfId="4"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="3"/>
+    <tableColumn id="4" name="Carnidalidade 2" dataDxfId="2"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="1"/>
+    <tableColumn id="6" name="Ação" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="C11:F13" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="C11:F13" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="132" tableBorderDxfId="131" totalsRowBorderDxfId="130">
   <autoFilter ref="C11:F13"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="72"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="71"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="70"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="69"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="53"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="52"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="51"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="C17:F22" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="C17:F22" totalsRowShown="0" headerRowDxfId="129" headerRowBorderDxfId="128" tableBorderDxfId="127">
   <autoFilter ref="C17:F22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="65"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="64"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="63"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="62"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="126"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="125"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="124"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="C26:F33" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="C26:F33" totalsRowShown="0" headerRowDxfId="122" headerRowBorderDxfId="121" tableBorderDxfId="120" totalsRowBorderDxfId="119">
   <autoFilter ref="C26:F33"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="57"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="56"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="55"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="54"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="118"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="117"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="116"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela10" displayName="Tabela10" ref="C38:F40" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela10" displayName="Tabela10" ref="C38:F40" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="114" tableBorderDxfId="113">
   <autoFilter ref="C38:F40"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="50"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="49"/>
-    <tableColumn id="3" name="Descrição"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="48"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="58"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="57"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="56"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela11" displayName="Tabela11" ref="C44:F46" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela11" displayName="Tabela11" ref="C44:F46" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="C44:F46"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="44"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="43"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="42"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="41"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="109"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="108"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="107"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela12" displayName="Tabela12" ref="C50:F53" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela12" displayName="Tabela12" ref="C50:F53" totalsRowShown="0" headerRowDxfId="105" headerRowBorderDxfId="104" tableBorderDxfId="103">
   <autoFilter ref="C50:F53"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="37"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="36"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="35"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="34"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="102"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="101"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="100"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela13" displayName="Tabela13" ref="C58:F62" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela13" displayName="Tabela13" ref="C58:F62" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
   <autoFilter ref="C58:F62"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="30"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="29"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="95"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="94"/>
     <tableColumn id="3" name="Descrição"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="28"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela14" displayName="Tabela14" ref="C66:F68" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela14" displayName="Tabela14" ref="C66:F68" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
   <autoFilter ref="C66:F68"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="24"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="23"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="22"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="21"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="89"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="88"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="87"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2738,16 +3671,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2755,7 +3688,7 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2763,7 +3696,7 @@
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2771,7 +3704,7 @@
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2779,7 +3712,7 @@
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="32" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2787,7 +3720,7 @@
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="32" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2795,7 +3728,7 @@
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="32" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2803,7 +3736,7 @@
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2811,7 +3744,7 @@
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2819,7 +3752,7 @@
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="32" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2827,7 +3760,7 @@
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2835,7 +3768,7 @@
       <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="32" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2850,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P94"/>
+  <dimension ref="B2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,223 +3795,222 @@
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="22" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="34">
         <v>12345</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="22" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="22" t="s">
+      <c r="F5" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="23" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="39"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="17"/>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="39"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="23"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="23"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="5" t="s">
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="17"/>
-    </row>
-    <row r="12" spans="2:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="2:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="17"/>
-    </row>
-    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="21" t="s">
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="30">
         <v>450000</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="17"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="39"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="17"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="23"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="C16" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="31" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3089,10 +4021,10 @@
       <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>18.45</v>
       </c>
     </row>
@@ -3103,10 +4035,10 @@
       <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>12345</v>
       </c>
     </row>
@@ -3117,75 +4049,75 @@
       <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>12345</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="12">
+      <c r="E21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="10">
         <v>12345</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="E22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="42"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>4</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3194,12 +4126,12 @@
       <c r="E27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="22">
         <v>12345</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3208,12 +4140,12 @@
       <c r="E28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3222,117 +4154,116 @@
       <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="19">
         <v>53.9</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="19" t="s">
-        <v>109</v>
+      <c r="C31" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="19">
         <v>1234</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="19" t="s">
-        <v>100</v>
+      <c r="C32" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="27">
         <v>1234</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="45">
+      <c r="F33" s="28">
         <v>1234</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="7" t="s">
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="6" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="34">
         <v>12345</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3340,12 +4271,12 @@
       <c r="B43" s="1">
         <v>6</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
@@ -3357,7 +4288,7 @@
       <c r="E44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3371,21 +4302,21 @@
       <c r="E45" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="34">
         <v>12345</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3394,24 +4325,24 @@
       <c r="B49" s="1">
         <v>7</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="31" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3422,10 +4353,10 @@
       <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3436,10 +4367,10 @@
       <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3450,56 +4381,56 @@
       <c r="D53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="42"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="25"/>
     </row>
     <row r="56" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>8</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="57"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="F58" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="47">
+      <c r="F59" s="29">
         <v>12345</v>
       </c>
     </row>
@@ -3510,10 +4441,10 @@
       <c r="D60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3527,21 +4458,21 @@
       <c r="E61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="48" t="s">
+      <c r="F61" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="14">
         <v>12345</v>
       </c>
     </row>
@@ -3549,12 +4480,12 @@
       <c r="B65" s="1">
         <v>9</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
@@ -3566,7 +4497,7 @@
       <c r="E66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="48" t="s">
+      <c r="F66" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3580,7 +4511,7 @@
       <c r="E67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F67" s="52">
+      <c r="F67" s="34">
         <v>12345</v>
       </c>
     </row>
@@ -3591,10 +4522,10 @@
       <c r="D68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3602,12 +4533,12 @@
       <c r="B71" s="1">
         <v>10</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
@@ -3619,7 +4550,7 @@
       <c r="E72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="48" t="s">
+      <c r="F72" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3633,7 +4564,7 @@
       <c r="E73" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="48">
+      <c r="F73" s="30">
         <v>1</v>
       </c>
     </row>
@@ -3644,10 +4575,10 @@
       <c r="D74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="16">
         <v>44787</v>
       </c>
     </row>
@@ -3658,10 +4589,10 @@
       <c r="D75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F75" s="48">
+      <c r="F75" s="30">
         <v>12345</v>
       </c>
     </row>
@@ -3672,10 +4603,10 @@
       <c r="D76" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F76" s="48">
+      <c r="F76" s="30">
         <v>12345</v>
       </c>
     </row>
@@ -3683,12 +4614,12 @@
       <c r="B79" s="1">
         <v>11</v>
       </c>
-      <c r="C79" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
+      <c r="C79" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
@@ -3700,7 +4631,7 @@
       <c r="E80" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="48" t="s">
+      <c r="F80" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3714,7 +4645,7 @@
       <c r="E81" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F81" s="30" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3725,10 +4656,10 @@
       <c r="D82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="16">
         <v>44787</v>
       </c>
     </row>
@@ -3739,10 +4670,10 @@
       <c r="D83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F83" s="48">
+      <c r="F83" s="30">
         <v>12345</v>
       </c>
     </row>
@@ -3753,10 +4684,10 @@
       <c r="D84" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="51" t="s">
+      <c r="F84" s="33" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3764,12 +4695,12 @@
       <c r="B88" s="1">
         <v>12</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
@@ -3781,7 +4712,7 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="48" t="s">
+      <c r="F89" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3793,23 +4724,23 @@
         <v>25</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="48">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="F90" s="30">
+        <v>12345</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F91" s="12" t="s">
+      <c r="E91" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3820,10 +4751,10 @@
       <c r="D92" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F92" s="48" t="s">
+      <c r="F92" s="30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3832,13 +4763,13 @@
         <v>52</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F93" s="51" t="s">
-        <v>102</v>
+      <c r="F93" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
@@ -3849,14 +4780,93 @@
         <v>43</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F94" s="18">
+        <v>109</v>
+      </c>
+      <c r="F94" s="16">
         <v>44787</v>
       </c>
     </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F98" s="27">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C100" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F101" s="16">
+        <v>44787</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C96:F96"/>
     <mergeCell ref="C71:F71"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C79:F79"/>
@@ -3872,7 +4882,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="12">
+  <tableParts count="13">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3885,6 +4895,243 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E7:J7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/entidades.xlsx
+++ b/entidades.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="Dicionario de dados" sheetId="2" r:id="rId2"/>
-    <sheet name="relacionamentos" sheetId="3" r:id="rId3"/>
+    <sheet name="Relacionamentos" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="155">
   <si>
     <t>Entidades</t>
   </si>
@@ -403,12 +403,6 @@
     <t>Atributos</t>
   </si>
   <si>
-    <t>Carnidalidade 1</t>
-  </si>
-  <si>
-    <t>Carnidalidade 2</t>
-  </si>
-  <si>
     <t>0-n</t>
   </si>
   <si>
@@ -430,25 +424,73 @@
     <t>Produto</t>
   </si>
   <si>
-    <t>Ação</t>
-  </si>
-  <si>
-    <t>Adicionado chave estrangeira na Entidade PedidoCompra</t>
-  </si>
-  <si>
-    <t>Criada nova tabela com chave estrangeira para cada entidade.</t>
-  </si>
-  <si>
     <t>Biblioteca</t>
   </si>
   <si>
-    <t>Foi unida as duas tabelas em uma só, com a junção das duas chaves primárias.</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>PossuiBiblioteca</t>
+    <t>Acervo</t>
+  </si>
+  <si>
+    <t>AtingeConquista</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>AvaliaçãoJogo</t>
+  </si>
+  <si>
+    <t>Lançamento</t>
+  </si>
+  <si>
+    <t>FuturosLançamentos</t>
+  </si>
+  <si>
+    <t>Produção</t>
+  </si>
+  <si>
+    <t>Obras</t>
+  </si>
+  <si>
+    <t>BibliotecaJogos</t>
+  </si>
+  <si>
+    <t>1-n</t>
+  </si>
+  <si>
+    <t>Classifica</t>
+  </si>
+  <si>
+    <t>Avaliado</t>
+  </si>
+  <si>
+    <t>Catálogo</t>
+  </si>
+  <si>
+    <t>LojaJogos</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>OrigemConquista</t>
+  </si>
+  <si>
+    <t>Novidades</t>
+  </si>
+  <si>
+    <t>Cardinalidade</t>
+  </si>
+  <si>
+    <t>Cardinalidade2</t>
+  </si>
+  <si>
+    <t>CópiaJogo</t>
   </si>
 </sst>
 </file>
@@ -764,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,6 +913,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,84 +946,152 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="134">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+  <dxfs count="226">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -982,36 +1110,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1029,58 +1133,824 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1110,6 +1980,135 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1124,12 +2123,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1168,7 +2169,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1194,9 +2194,7 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1215,15 +2213,233 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1239,9 +2455,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1280,6 +2497,57 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1302,7 +2570,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1323,7 +2590,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1371,9 +2638,7 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1392,106 +2657,16 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1510,7 +2685,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1531,7 +2705,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1554,7 +2728,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1577,11 +2750,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1600,61 +2770,23 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1673,8 +2805,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1695,7 +2825,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1762,7 +2891,26 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1782,11 +2930,84 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1824,7 +3045,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1847,9 +3067,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1865,6 +3086,140 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1974,196 +3329,24 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -2188,11 +3371,115 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2208,7 +3495,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2231,7 +3517,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2254,9 +3539,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2285,6 +3571,138 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2303,6 +3721,8 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2323,7 +3743,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2346,6 +3766,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2368,6 +3789,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2389,22 +3811,22 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="medium">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2420,726 +3842,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -3156,63 +3858,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="C3:F7" totalsRowShown="0" headerRowDxfId="44" tableBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="C3:F7" totalsRowShown="0" headerRowDxfId="225" tableBorderDxfId="224">
   <autoFilter ref="C3:F7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="48"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="47"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="46"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="45"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="223"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="222"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="221"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabela15" displayName="Tabela15" ref="C72:F76" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabela15" displayName="Tabela15" ref="C72:F76" totalsRowShown="0" headerRowDxfId="162" headerRowBorderDxfId="161" tableBorderDxfId="160">
   <autoFilter ref="C72:F76"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="82"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="81"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="80"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="79"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="159"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="158"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="157"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela16" displayName="Tabela16" ref="C80:F84" totalsRowShown="0" headerRowDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela16" displayName="Tabela16" ref="C80:F84" totalsRowShown="0" headerRowDxfId="155" tableBorderDxfId="154">
   <autoFilter ref="C80:F84"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="76"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="75"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="74"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="73"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="153"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="152"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="151"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela17" displayName="Tabela17" ref="C89:F94" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela17" displayName="Tabela17" ref="C89:F94" totalsRowShown="0" headerRowDxfId="149" headerRowBorderDxfId="148" tableBorderDxfId="147" totalsRowBorderDxfId="146">
   <autoFilter ref="C89:F94"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="68"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="67"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="66"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="65"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="145"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="144"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="143"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C97:F101" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="63" tableBorderDxfId="64" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C97:F101" totalsRowShown="0" headerRowDxfId="141" headerRowBorderDxfId="140" tableBorderDxfId="139" totalsRowBorderDxfId="138">
   <autoFilter ref="C97:F101"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="61"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="60"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="137"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="136"/>
     <tableColumn id="3" name="Descrição"/>
     <tableColumn id="4" name="Exemplo"/>
   </tableColumns>
@@ -3221,163 +3923,314 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabela18" displayName="Tabela18" ref="E3:J4" totalsRowShown="0" headerRowDxfId="34" dataDxfId="43" headerRowBorderDxfId="41" tableBorderDxfId="42" totalsRowBorderDxfId="40">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Entidade 1" dataDxfId="39"/>
-    <tableColumn id="2" name="Carnidalidade 1" dataDxfId="38"/>
-    <tableColumn id="3" name="Entidade 2" dataDxfId="37"/>
-    <tableColumn id="4" name="Carnidalidade 2" dataDxfId="36"/>
-    <tableColumn id="5" name="Atributos" dataDxfId="35"/>
-    <tableColumn id="6" name="Ação" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="D3:H4" totalsRowShown="0" headerRowDxfId="116" dataDxfId="132" headerRowBorderDxfId="134" tableBorderDxfId="135" totalsRowBorderDxfId="133">
+  <autoFilter ref="D3:H4"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="120"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="119"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="118"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="117"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela20" displayName="Tabela20" ref="E8:J9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="30" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
-  <autoFilter ref="E8:J9"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Entidade 1" dataDxfId="25"/>
-    <tableColumn id="2" name="Carnidalidade 1" dataDxfId="24"/>
-    <tableColumn id="3" name="Entidade 2" dataDxfId="23"/>
-    <tableColumn id="4" name="Carnidalidade 2" dataDxfId="22"/>
-    <tableColumn id="5" name="Atributos" dataDxfId="21"/>
-    <tableColumn id="6" name="Ação" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="D8:H9" totalsRowShown="0" headerRowDxfId="128" headerRowBorderDxfId="130" tableBorderDxfId="131" totalsRowBorderDxfId="129">
+  <autoFilter ref="D8:H9"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="115"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="114"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="113"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="112"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabela2022" displayName="Tabela2022" ref="E13:J14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
-  <autoFilter ref="E13:J14"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Entidade 1" dataDxfId="17"/>
-    <tableColumn id="2" name="Carnidalidade 1" dataDxfId="16"/>
-    <tableColumn id="3" name="Entidade 2" dataDxfId="15"/>
-    <tableColumn id="4" name="Carnidalidade 2" dataDxfId="14"/>
-    <tableColumn id="5" name="Atributos" dataDxfId="13"/>
-    <tableColumn id="6" name="Ação" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="D13:H14" totalsRowShown="0" headerRowDxfId="105" headerRowBorderDxfId="126" tableBorderDxfId="127" totalsRowBorderDxfId="125">
+  <autoFilter ref="D13:H14"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="110"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="109"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="108"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="107"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabela202223" displayName="Tabela202223" ref="E17:J18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="E17:J18"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Entidade 1" dataDxfId="5"/>
-    <tableColumn id="2" name="Carnidalidade 1" dataDxfId="4"/>
-    <tableColumn id="3" name="Entidade 2" dataDxfId="3"/>
-    <tableColumn id="4" name="Carnidalidade 2" dataDxfId="2"/>
-    <tableColumn id="5" name="Atributos" dataDxfId="1"/>
-    <tableColumn id="6" name="Ação" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabela19" displayName="Tabela19" ref="D18:H19" totalsRowShown="0" headerRowDxfId="121" headerRowBorderDxfId="123" tableBorderDxfId="124" totalsRowBorderDxfId="122">
+  <autoFilter ref="D18:H19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="104"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="103"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="102"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="101"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="100"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabela1924" displayName="Tabela1924" ref="D23:H24" totalsRowShown="0" headerRowDxfId="99" headerRowBorderDxfId="97" tableBorderDxfId="98" totalsRowBorderDxfId="96">
+  <autoFilter ref="D23:H24"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="95"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="91"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="94"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="93"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="92"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabela192425" displayName="Tabela192425" ref="D28:H29" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="88" tableBorderDxfId="89" totalsRowBorderDxfId="87">
+  <autoFilter ref="D28:H29"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="86"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="82"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="85"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="84"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="C11:F13" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="132" tableBorderDxfId="131" totalsRowBorderDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="C11:F13" totalsRowShown="0" headerRowDxfId="219" headerRowBorderDxfId="218" tableBorderDxfId="217" totalsRowBorderDxfId="216">
   <autoFilter ref="C11:F13"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="53"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="52"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="51"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="50"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="215"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="214"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="213"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="212"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabela19242526" displayName="Tabela19242526" ref="D33:H34" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="79" tableBorderDxfId="80" totalsRowBorderDxfId="78">
+  <autoFilter ref="D33:H34"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="77"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="76"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="75"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="74"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="73"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabela1924252627" displayName="Tabela1924252627" ref="D38:H39" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="70" tableBorderDxfId="71" totalsRowBorderDxfId="69">
+  <autoFilter ref="D38:H39"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="68"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="67"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="66"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="64"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="65"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabela192425262728" displayName="Tabela192425262728" ref="D43:H44" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="61" tableBorderDxfId="62" totalsRowBorderDxfId="60">
+  <autoFilter ref="D43:H44"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="59"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="58"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="57"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="56"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="55"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabela19242526272829" displayName="Tabela19242526272829" ref="D48:H49" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+  <autoFilter ref="D48:H49"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="52"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="51"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="50"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="49"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabela1924252627282930" displayName="Tabela1924252627282930" ref="D53:H54" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+  <autoFilter ref="D53:H54"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="45"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="44"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="43"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="42"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="41"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabela192425262728293031" displayName="Tabela192425262728293031" ref="D58:H59" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+  <autoFilter ref="D58:H59"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="38"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="37"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="36"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="35"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tabela19242526272829303132" displayName="Tabela19242526272829303132" ref="D63:H64" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="D63:H64"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="31"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="30"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="29"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="28"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabela1924252627282930313233" displayName="Tabela1924252627282930313233" ref="D68:H69" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="D68:H69"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="24"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="20"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="23"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="22"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tabela192425262728293031323334" displayName="Tabela192425262728293031323334" ref="D73:H74" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="D73:H74"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Entidade 1" dataDxfId="17"/>
+    <tableColumn id="2" name="Cardinalidade" dataDxfId="13"/>
+    <tableColumn id="3" name="Entidade 2" dataDxfId="16"/>
+    <tableColumn id="4" name="Cardinalidade2" dataDxfId="15"/>
+    <tableColumn id="5" name="Atributos" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="C17:F22" totalsRowShown="0" headerRowDxfId="129" headerRowBorderDxfId="128" tableBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="C17:F22" totalsRowShown="0" headerRowDxfId="211" headerRowBorderDxfId="210" tableBorderDxfId="209">
   <autoFilter ref="C17:F22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="126"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="125"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="124"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="123"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="208"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="207"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="206"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="205"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="C26:F33" totalsRowShown="0" headerRowDxfId="122" headerRowBorderDxfId="121" tableBorderDxfId="120" totalsRowBorderDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="C26:F33" totalsRowShown="0" headerRowDxfId="204" headerRowBorderDxfId="203" tableBorderDxfId="202" totalsRowBorderDxfId="201">
   <autoFilter ref="C26:F33"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="118"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="117"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="116"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="115"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="200"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="199"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="198"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="197"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela10" displayName="Tabela10" ref="C38:F40" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="114" tableBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela10" displayName="Tabela10" ref="C38:F40" totalsRowShown="0" headerRowDxfId="196" headerRowBorderDxfId="195" tableBorderDxfId="194">
   <autoFilter ref="C38:F40"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="58"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="57"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="56"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="55"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="193"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="192"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="191"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="190"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela11" displayName="Tabela11" ref="C44:F46" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="111" tableBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela11" displayName="Tabela11" ref="C44:F46" totalsRowShown="0" headerRowDxfId="189" headerRowBorderDxfId="188" tableBorderDxfId="187">
   <autoFilter ref="C44:F46"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="109"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="108"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="107"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="106"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="186"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="185"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="184"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela12" displayName="Tabela12" ref="C50:F53" totalsRowShown="0" headerRowDxfId="105" headerRowBorderDxfId="104" tableBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela12" displayName="Tabela12" ref="C50:F53" totalsRowShown="0" headerRowDxfId="182" headerRowBorderDxfId="181" tableBorderDxfId="180">
   <autoFilter ref="C50:F53"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="102"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="101"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="100"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="99"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="179"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="178"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="177"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela13" displayName="Tabela13" ref="C58:F62" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela13" displayName="Tabela13" ref="C58:F62" totalsRowShown="0" headerRowDxfId="175" headerRowBorderDxfId="174" tableBorderDxfId="173">
   <autoFilter ref="C58:F62"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="95"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="94"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="172"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="171"/>
     <tableColumn id="3" name="Descrição"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="93"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela14" displayName="Tabela14" ref="C66:F68" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela14" displayName="Tabela14" ref="C66:F68" totalsRowShown="0" headerRowDxfId="169" headerRowBorderDxfId="168" tableBorderDxfId="167">
   <autoFilter ref="C66:F68"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Atributo" dataDxfId="89"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="88"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="87"/>
-    <tableColumn id="4" name="Exemplo" dataDxfId="86"/>
+    <tableColumn id="1" name="Atributo" dataDxfId="166"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="165"/>
+    <tableColumn id="3" name="Descrição" dataDxfId="164"/>
+    <tableColumn id="4" name="Exemplo" dataDxfId="163"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3671,10 +4524,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -3786,7 +4639,7 @@
   <dimension ref="B2:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,12 +4659,12 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
@@ -3823,7 +4676,7 @@
       <c r="E3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3862,7 +4715,7 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="40" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="30" t="s">
@@ -3876,7 +4729,7 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="38" t="s">
         <v>64</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -3907,12 +4760,12 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
@@ -3946,7 +4799,7 @@
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="37" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="10">
@@ -3964,7 +4817,7 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="30">
@@ -3990,12 +4843,12 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
@@ -4095,12 +4948,12 @@
       <c r="B25" s="1">
         <v>4</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="20" t="s">
@@ -4218,12 +5071,12 @@
       <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
@@ -4271,12 +5124,12 @@
       <c r="B43" s="1">
         <v>6</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
@@ -4325,12 +5178,12 @@
       <c r="B49" s="1">
         <v>7</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="40"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
@@ -4399,12 +5252,12 @@
       <c r="B57" s="1">
         <v>8</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46"/>
     </row>
     <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
@@ -4480,12 +5333,12 @@
       <c r="B65" s="1">
         <v>9</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
@@ -4533,12 +5386,12 @@
       <c r="B71" s="1">
         <v>10</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C71" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
@@ -4614,12 +5467,12 @@
       <c r="B79" s="1">
         <v>11</v>
       </c>
-      <c r="C79" s="37" t="s">
+      <c r="C79" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
@@ -4695,12 +5548,12 @@
       <c r="B88" s="1">
         <v>12</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
@@ -4787,12 +5640,12 @@
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" s="20" t="s">
@@ -4846,7 +5699,7 @@
       <c r="E100" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F100" s="41" t="s">
+      <c r="F100" s="36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4902,236 +5755,746 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:J18"/>
+  <dimension ref="C2:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="48" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="20" t="s">
+      <c r="G9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="E13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="F19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="46" t="s">
+      <c r="G23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E4" s="17" t="s">
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="48" t="s">
+      <c r="E24" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>13</v>
+      </c>
+      <c r="D62" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="48" t="s">
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G74" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="48" t="s">
+      <c r="H74" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>138</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E7:J7"/>
+  <mergeCells count="15">
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D27:H27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="15">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>